--- a/xlsx/sc_ItemData.xlsx
+++ b/xlsx/sc_ItemData.xlsx
@@ -66,7 +66,11 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">diamond</t>
+      <t xml:space="preserve">物品类型
+diamond 钻石
+gold 金币
+piece 鱼碎片
+treasure //宝箱 概率出货 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -77,11 +81,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">物品类型
-diamond 钻石
-gold 金币
-piece 鱼碎片
-treasure //宝箱 概率出货 </t>
+      <t xml:space="preserve">diamond</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -743,11 +743,11 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.012048192771083" customWidth="true"/>
-    <col min="2" max="2" width="17.10843373493976" customWidth="true"/>
-    <col min="3" max="3" width="24.819277108433734" customWidth="true"/>
+    <col min="2" max="2" width="24.819277108433734" customWidth="true"/>
+    <col min="3" max="3" width="17.10843373493976" customWidth="true"/>
     <col min="4" max="4" width="20.361445783132528" customWidth="true"/>
-    <col min="5" max="5" width="23.493975903614455" customWidth="true"/>
-    <col min="6" max="6" width="22.16867469879518" customWidth="true"/>
+    <col min="5" max="5" width="22.16867469879518" customWidth="true"/>
+    <col min="6" max="6" width="23.493975903614455" customWidth="true"/>
     <col min="7" max="7" width="12.89156626506024" customWidth="true"/>
     <col min="8" max="8" width="12.89156626506024" customWidth="true"/>
     <col min="9" max="9" width="12.89156626506024" customWidth="true"/>
@@ -774,17 +774,17 @@
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -810,19 +810,19 @@
       <c r="A2" s="25" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -848,10 +848,10 @@
       <c r="A3" s="25" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
       <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
@@ -882,17 +882,17 @@
       <c r="A4" s="25" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="24"/>
       <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="n">
         <v>1.0</v>
       </c>
-      <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -918,17 +918,17 @@
       <c r="A5" s="25" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24"/>
       <c r="D5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="n">
         <v>1.0</v>
       </c>
-      <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -952,11 +952,11 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>

--- a/xlsx/sc_ItemData.xlsx
+++ b/xlsx/sc_ItemData.xlsx
@@ -67,10 +67,10 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">物品类型
-diamond 钻石
-gold 金币
-piece 鱼碎片
-treasure //宝箱 概率出货 </t>
+	cDiamond 	= 1;
+	cGold 		= 2;
+	cPiece 		= 3;
+	cTreasure 	= 4;	//宝箱 概率出货</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -81,7 +81,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">diamond</t>
+      <t xml:space="preserve">cDiamond</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -117,7 +117,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">gold</t>
+      <t xml:space="preserve">cGold</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -139,7 +139,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">piece</t>
+      <t xml:space="preserve">cPiece</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -161,7 +161,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">treasure</t>
+      <t xml:space="preserve">cTreasure</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
